--- a/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841810_Import_Values.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841810_Import_Values.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Sources_and_Preparation\ITC_Trade_Data\Unit Value Analysis for selection of features\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Units" sheetId="1" r:id="rId1"/>
     <sheet name="After_Unit_conv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original_Units!$A$1:$P$173</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,18 +98,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,26 +133,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,22 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,17 +488,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>200404</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="b">
@@ -546,7 +513,7 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="b">
@@ -562,17 +529,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>200405</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="b">
@@ -587,7 +554,7 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="b">
@@ -603,17 +570,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>200406</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="b">
@@ -628,7 +595,7 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="b">
@@ -644,17 +611,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>200407</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="b">
@@ -669,7 +636,7 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="b">
@@ -685,17 +652,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>200408</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="b">
@@ -710,7 +677,7 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="b">
@@ -726,11 +693,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>200409</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="b">
@@ -739,7 +706,7 @@
       <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="b">
@@ -754,7 +721,7 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="b">
@@ -770,11 +737,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>200410</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="b">
@@ -783,7 +750,7 @@
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="b">
@@ -798,7 +765,7 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="b">
@@ -814,11 +781,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>200411</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="b">
@@ -827,7 +794,7 @@
       <c r="E9">
         <v>4.67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="b">
@@ -842,7 +809,7 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="b">
@@ -858,17 +825,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>200412</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="b">
@@ -883,7 +850,7 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="b">
@@ -899,20 +866,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>200501</v>
       </c>
       <c r="B11">
         <v>147</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="b">
@@ -927,7 +894,7 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="b">
@@ -943,14 +910,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>200502</v>
       </c>
       <c r="B12">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="b">
@@ -959,7 +926,7 @@
       <c r="E12">
         <v>6.36</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="b">
@@ -974,7 +941,7 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="b">
@@ -990,20 +957,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>200503</v>
       </c>
       <c r="B13">
         <v>143</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="b">
@@ -1018,7 +985,7 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="b">
@@ -1034,20 +1001,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>200504</v>
       </c>
       <c r="B14">
         <v>144</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="b">
@@ -1062,7 +1029,7 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="b">
@@ -1078,14 +1045,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>200505</v>
       </c>
       <c r="B15">
         <v>139</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="b">
@@ -1094,7 +1061,7 @@
       <c r="E15">
         <v>5.49</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="b">
@@ -1109,7 +1076,7 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="b">
@@ -1125,20 +1092,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>200506</v>
       </c>
       <c r="B16">
         <v>134</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="b">
@@ -1153,7 +1120,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="b">
@@ -1169,20 +1136,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>200507</v>
       </c>
       <c r="B17">
         <v>152</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="b">
@@ -1197,7 +1164,7 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="b">
@@ -1213,20 +1180,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>200508</v>
       </c>
       <c r="B18">
         <v>167</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="b">
@@ -1241,7 +1208,7 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="b">
@@ -1257,20 +1224,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>200509</v>
       </c>
       <c r="B19">
         <v>159</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="b">
@@ -1285,7 +1252,7 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="b">
@@ -1301,20 +1268,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>200510</v>
       </c>
       <c r="B20">
         <v>144</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="b">
@@ -1329,7 +1296,7 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="b">
@@ -1345,20 +1312,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>200511</v>
       </c>
       <c r="B21">
         <v>134</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="b">
@@ -1373,7 +1340,7 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="b">
@@ -1389,20 +1356,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>200512</v>
       </c>
       <c r="B22">
         <v>147</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="b">
@@ -1417,7 +1384,7 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="b">
@@ -1433,20 +1400,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>200601</v>
       </c>
       <c r="B23">
         <v>143</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="b">
@@ -1461,7 +1428,7 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="b">
@@ -1470,21 +1437,21 @@
       <c r="N23">
         <v>302</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" t="s">
         <v>16</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>200602</v>
       </c>
       <c r="B24">
         <v>149</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="b">
@@ -1493,7 +1460,7 @@
       <c r="E24">
         <v>13</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="b">
@@ -1508,7 +1475,7 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="b">
@@ -1517,27 +1484,27 @@
       <c r="N24">
         <v>290</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" t="s">
         <v>16</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>200603</v>
       </c>
       <c r="B25">
         <v>183</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="b">
@@ -1552,7 +1519,7 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" t="b">
@@ -1561,27 +1528,27 @@
       <c r="N25">
         <v>309</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" t="s">
         <v>16</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>200604</v>
       </c>
       <c r="B26">
         <v>180</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="b">
@@ -1590,13 +1557,13 @@
       <c r="H26">
         <v>240</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="b">
@@ -1605,27 +1572,27 @@
       <c r="N26">
         <v>324</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" t="s">
         <v>16</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>200605</v>
       </c>
       <c r="B27">
         <v>190</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="b">
@@ -1634,13 +1601,13 @@
       <c r="H27">
         <v>248</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="b">
@@ -1649,21 +1616,21 @@
       <c r="N27">
         <v>589</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" t="s">
         <v>16</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>200606</v>
       </c>
       <c r="B28">
         <v>167</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="b">
@@ -1681,13 +1648,13 @@
       <c r="H28">
         <v>237</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="b">
@@ -1696,21 +1663,21 @@
       <c r="N28">
         <v>418</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" t="s">
         <v>16</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>200607</v>
       </c>
       <c r="B29">
         <v>159</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="b">
@@ -1728,13 +1695,13 @@
       <c r="H29">
         <v>237</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="b">
@@ -1743,21 +1710,21 @@
       <c r="N29">
         <v>322</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" t="s">
         <v>16</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>200608</v>
       </c>
       <c r="B30">
         <v>222</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="b">
@@ -1778,7 +1745,7 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="b">
@@ -1787,21 +1754,21 @@
       <c r="N30">
         <v>325</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" t="s">
         <v>16</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>200609</v>
       </c>
       <c r="B31">
         <v>168</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="b">
@@ -1819,13 +1786,13 @@
       <c r="H31">
         <v>245</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="b">
@@ -1834,21 +1801,21 @@
       <c r="N31">
         <v>319</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" t="s">
         <v>16</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>200610</v>
       </c>
       <c r="B32">
         <v>297</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="b">
@@ -1866,13 +1833,13 @@
       <c r="H32">
         <v>432</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="b">
@@ -1881,21 +1848,21 @@
       <c r="N32">
         <v>338</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" t="s">
         <v>16</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>200611</v>
       </c>
       <c r="B33">
         <v>174</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="b">
@@ -1919,7 +1886,7 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="b">
@@ -1928,21 +1895,21 @@
       <c r="N33">
         <v>354</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" t="s">
         <v>16</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>200612</v>
       </c>
       <c r="B34">
         <v>272</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="b">
@@ -1960,13 +1927,13 @@
       <c r="H34">
         <v>332</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>16</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="b">
@@ -1975,21 +1942,21 @@
       <c r="N34">
         <v>326</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" t="s">
         <v>16</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>200701</v>
       </c>
       <c r="B35">
         <v>175</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="b">
@@ -2013,7 +1980,7 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" t="b">
@@ -2022,21 +1989,21 @@
       <c r="N35">
         <v>347</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" t="s">
         <v>16</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>200702</v>
       </c>
       <c r="B36">
         <v>248</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="b">
@@ -2051,13 +2018,13 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="b">
@@ -2066,21 +2033,21 @@
       <c r="N36">
         <v>336</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" t="s">
         <v>16</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>200703</v>
       </c>
       <c r="B37">
         <v>176</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="b">
@@ -2098,13 +2065,13 @@
       <c r="H37">
         <v>406</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="b">
@@ -2113,21 +2080,21 @@
       <c r="N37">
         <v>353</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" t="s">
         <v>16</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>200704</v>
       </c>
       <c r="B38">
         <v>149</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="b">
@@ -2151,7 +2118,7 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="b">
@@ -2160,21 +2127,21 @@
       <c r="N38">
         <v>343</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" t="s">
         <v>16</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>200705</v>
       </c>
       <c r="B39">
         <v>147</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="b">
@@ -2198,7 +2165,7 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="b">
@@ -2207,28 +2174,28 @@
       <c r="N39">
         <v>359</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" t="s">
         <v>16</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>200706</v>
       </c>
       <c r="B40">
         <v>127</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2245,7 +2212,7 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="b">
@@ -2254,21 +2221,21 @@
       <c r="N40">
         <v>363</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" t="s">
         <v>16</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>200707</v>
       </c>
       <c r="B41">
         <v>152</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="b">
@@ -2292,7 +2259,7 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="b">
@@ -2301,21 +2268,21 @@
       <c r="N41">
         <v>398</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" t="s">
         <v>16</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>200708</v>
       </c>
       <c r="B42">
         <v>149</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="b">
@@ -2339,7 +2306,7 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="b">
@@ -2348,28 +2315,28 @@
       <c r="N42">
         <v>334</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" t="s">
         <v>16</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>200709</v>
       </c>
       <c r="B43">
         <v>167</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2386,7 +2353,7 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="b">
@@ -2395,28 +2362,28 @@
       <c r="N43">
         <v>404</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" t="s">
         <v>16</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>200710</v>
       </c>
       <c r="B44">
         <v>184</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -2433,7 +2400,7 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" t="b">
@@ -2442,28 +2409,28 @@
       <c r="N44">
         <v>409</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" t="s">
         <v>16</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>200711</v>
       </c>
       <c r="B45">
         <v>199</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -2480,7 +2447,7 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="b">
@@ -2489,28 +2456,28 @@
       <c r="N45">
         <v>419</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" t="s">
         <v>16</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>200712</v>
       </c>
       <c r="B46">
         <v>208</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2527,7 +2494,7 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="b">
@@ -2536,28 +2503,28 @@
       <c r="N46">
         <v>494</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" t="s">
         <v>16</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>200801</v>
       </c>
       <c r="B47">
         <v>212</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2575,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2586,21 +2553,21 @@
       <c r="N47">
         <v>403</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" t="s">
         <v>16</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>200802</v>
       </c>
       <c r="B48">
         <v>251</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="b">
@@ -2636,28 +2603,28 @@
       <c r="N48">
         <v>388</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" t="s">
         <v>16</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>200803</v>
       </c>
       <c r="B49">
         <v>226</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2686,28 +2653,28 @@
       <c r="N49">
         <v>462</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" t="s">
         <v>16</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>200804</v>
       </c>
       <c r="B50">
         <v>227</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -2736,21 +2703,21 @@
       <c r="N50">
         <v>528</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" t="s">
         <v>16</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>200805</v>
       </c>
       <c r="B51">
         <v>219</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="b">
@@ -2786,21 +2753,21 @@
       <c r="N51">
         <v>491</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" t="s">
         <v>16</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>200806</v>
       </c>
       <c r="B52">
         <v>202</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="b">
@@ -2836,21 +2803,21 @@
       <c r="N52">
         <v>525</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" t="s">
         <v>16</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>200807</v>
       </c>
       <c r="B53">
         <v>206</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="b">
@@ -2886,28 +2853,28 @@
       <c r="N53">
         <v>507</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" t="s">
         <v>16</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>200808</v>
       </c>
       <c r="B54">
         <v>177</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2936,21 +2903,21 @@
       <c r="N54">
         <v>416</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" t="s">
         <v>16</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>200809</v>
       </c>
       <c r="B55">
         <v>163</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="b">
@@ -2986,21 +2953,21 @@
       <c r="N55">
         <v>526</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" t="s">
         <v>16</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>200810</v>
       </c>
       <c r="B56">
         <v>182</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="b">
@@ -3025,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -3036,21 +3003,21 @@
       <c r="N56">
         <v>492</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" t="s">
         <v>16</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>200811</v>
       </c>
       <c r="B57">
         <v>205</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="b">
@@ -3086,21 +3053,21 @@
       <c r="N57">
         <v>514</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" t="s">
         <v>16</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>200812</v>
       </c>
       <c r="B58">
         <v>206</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="b">
@@ -3136,21 +3103,21 @@
       <c r="N58">
         <v>490</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" t="s">
         <v>16</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>200901</v>
       </c>
       <c r="B59">
         <v>209</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="b">
@@ -3186,21 +3153,21 @@
       <c r="N59">
         <v>401</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" t="s">
         <v>16</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>200902</v>
       </c>
       <c r="B60">
         <v>190</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="b">
@@ -3236,21 +3203,21 @@
       <c r="N60">
         <v>390</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" t="s">
         <v>16</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>200903</v>
       </c>
       <c r="B61">
         <v>188</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="b">
@@ -3286,21 +3253,21 @@
       <c r="N61">
         <v>407</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="O61" t="s">
         <v>16</v>
       </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>200904</v>
       </c>
       <c r="B62">
         <v>257</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>16</v>
       </c>
       <c r="D62" t="b">
@@ -3336,21 +3303,21 @@
       <c r="N62">
         <v>402</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" t="s">
         <v>16</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>200905</v>
       </c>
       <c r="B63">
         <v>180</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>16</v>
       </c>
       <c r="D63" t="b">
@@ -3386,21 +3353,21 @@
       <c r="N63">
         <v>406</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" t="s">
         <v>16</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>200906</v>
       </c>
       <c r="B64">
         <v>179</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="b">
@@ -3436,21 +3403,21 @@
       <c r="N64">
         <v>373</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" t="s">
         <v>16</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>200907</v>
       </c>
       <c r="B65">
         <v>171</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>16</v>
       </c>
       <c r="D65" t="b">
@@ -3486,21 +3453,21 @@
       <c r="N65">
         <v>436</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O65" t="s">
         <v>16</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>200908</v>
       </c>
       <c r="B66">
         <v>174</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>16</v>
       </c>
       <c r="D66" t="b">
@@ -3536,21 +3503,21 @@
       <c r="N66">
         <v>348</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" t="s">
         <v>16</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>200909</v>
       </c>
       <c r="B67">
         <v>168</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>16</v>
       </c>
       <c r="D67" t="b">
@@ -3586,21 +3553,21 @@
       <c r="N67">
         <v>378</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O67" t="s">
         <v>16</v>
       </c>
       <c r="P67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>200910</v>
       </c>
       <c r="B68">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
       <c r="D68" t="b">
@@ -3636,21 +3603,21 @@
       <c r="N68">
         <v>399</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="O68" t="s">
         <v>16</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>200911</v>
       </c>
       <c r="B69">
         <v>167</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>16</v>
       </c>
       <c r="D69" t="b">
@@ -3686,21 +3653,21 @@
       <c r="N69">
         <v>428</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" t="s">
         <v>16</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>200912</v>
       </c>
       <c r="B70">
         <v>187</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="D70" t="b">
@@ -3736,14 +3703,14 @@
       <c r="N70">
         <v>481</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" t="s">
         <v>16</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>201001</v>
       </c>
@@ -3793,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>201002</v>
       </c>
@@ -3843,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>201003</v>
       </c>
@@ -3893,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>201004</v>
       </c>
@@ -3943,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>201005</v>
       </c>
@@ -3993,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>201006</v>
       </c>
@@ -4043,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>201007</v>
       </c>
@@ -4075,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -4093,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>201008</v>
       </c>
@@ -4143,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>201009</v>
       </c>
@@ -4193,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>201010</v>
       </c>
@@ -4243,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>201011</v>
       </c>
@@ -4293,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>201012</v>
       </c>
@@ -4325,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -4343,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>201101</v>
       </c>
@@ -4393,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>201102</v>
       </c>
@@ -4443,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>201103</v>
       </c>
@@ -4493,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>201104</v>
       </c>
@@ -4543,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>201105</v>
       </c>
@@ -4575,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4593,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>201106</v>
       </c>
@@ -4643,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>201107</v>
       </c>
@@ -4693,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>201108</v>
       </c>
@@ -4743,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>201109</v>
       </c>
@@ -4793,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>201110</v>
       </c>
@@ -4843,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>201111</v>
       </c>
@@ -4893,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>201112</v>
       </c>
@@ -4943,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>201201</v>
       </c>
@@ -4993,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>201202</v>
       </c>
@@ -5043,12 +5010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>201203</v>
       </c>
       <c r="B97">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -5093,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>201204</v>
       </c>
@@ -5143,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>201205</v>
       </c>
@@ -5193,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>201206</v>
       </c>
@@ -5243,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>201207</v>
       </c>
@@ -5293,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>201208</v>
       </c>
@@ -5343,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>201209</v>
       </c>
@@ -5393,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>201210</v>
       </c>
@@ -5443,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>201211</v>
       </c>
@@ -5493,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>201212</v>
       </c>
@@ -5543,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>201301</v>
       </c>
@@ -5593,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>201302</v>
       </c>
@@ -5643,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>201303</v>
       </c>
@@ -5675,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5693,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>201304</v>
       </c>
@@ -5743,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>201305</v>
       </c>
@@ -5793,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>201306</v>
       </c>
@@ -5843,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>201307</v>
       </c>
@@ -5893,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>201308</v>
       </c>
@@ -5943,12 +5910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>201309</v>
       </c>
       <c r="B115">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -5993,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>201310</v>
       </c>
@@ -6043,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>201311</v>
       </c>
@@ -6093,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>201312</v>
       </c>
@@ -6143,12 +6110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>201401</v>
       </c>
       <c r="B119">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -6193,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>201402</v>
       </c>
@@ -6243,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>201403</v>
       </c>
@@ -6293,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>201404</v>
       </c>
@@ -6343,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>201405</v>
       </c>
@@ -6393,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>201406</v>
       </c>
@@ -6443,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>201407</v>
       </c>
@@ -6493,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>201408</v>
       </c>
@@ -6543,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>201409</v>
       </c>
@@ -6593,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>201410</v>
       </c>
@@ -6643,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>201411</v>
       </c>
@@ -6675,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -6693,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>201412</v>
       </c>
@@ -6743,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>201501</v>
       </c>
@@ -6793,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>201502</v>
       </c>
@@ -6843,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>201503</v>
       </c>
@@ -6893,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>201504</v>
       </c>
@@ -6943,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>201505</v>
       </c>
@@ -6993,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>201506</v>
       </c>
@@ -7043,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>201507</v>
       </c>
@@ -7093,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>201508</v>
       </c>
@@ -7143,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>201509</v>
       </c>
@@ -7193,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>201510</v>
       </c>
@@ -7243,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>201511</v>
       </c>
@@ -7275,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -7293,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>201512</v>
       </c>
@@ -7343,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>201601</v>
       </c>
@@ -7393,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>201602</v>
       </c>
@@ -7443,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>201603</v>
       </c>
@@ -7475,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -7493,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>201604</v>
       </c>
@@ -7543,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>201605</v>
       </c>
@@ -7575,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -7593,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>201606</v>
       </c>
@@ -7625,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -7643,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>201607</v>
       </c>
@@ -7693,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150">
         <v>201608</v>
       </c>
@@ -7743,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151">
         <v>201609</v>
       </c>
@@ -7775,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -7793,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>201610</v>
       </c>
@@ -7825,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -7843,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>201611</v>
       </c>
@@ -7893,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>201612</v>
       </c>
@@ -7925,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -7943,12 +7910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>201701</v>
       </c>
       <c r="B155">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -7975,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -7993,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>201702</v>
       </c>
@@ -8043,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>201703</v>
       </c>
@@ -8075,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -8093,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158">
         <v>201704</v>
       </c>
@@ -8143,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>201705</v>
       </c>
@@ -8175,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -8193,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>201706</v>
       </c>
@@ -8243,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161">
         <v>201707</v>
       </c>
@@ -8293,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162">
         <v>201708</v>
       </c>
@@ -8343,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163">
         <v>201709</v>
       </c>
@@ -8393,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164">
         <v>201710</v>
       </c>
@@ -8443,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165">
         <v>201711</v>
       </c>
@@ -8493,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166">
         <v>201712</v>
       </c>
@@ -8543,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167">
         <v>201801</v>
       </c>
@@ -8566,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -8593,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="A168">
         <v>201802</v>
       </c>
@@ -8643,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169">
         <v>201803</v>
       </c>
@@ -8684,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="O169" t="s">
         <v>17</v>
@@ -8693,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="A170">
         <v>201804</v>
       </c>
@@ -8740,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171">
         <v>201805</v>
       </c>
@@ -8760,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -8787,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172">
         <v>201806</v>
       </c>
@@ -8821,14 +8788,14 @@
       <c r="M172" t="b">
         <v>0</v>
       </c>
-      <c r="O172" s="2">
+      <c r="O172">
         <v>0</v>
       </c>
       <c r="P172" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173">
         <v>201807</v>
       </c>
@@ -8862,7 +8829,7 @@
       <c r="M173" t="b">
         <v>0</v>
       </c>
-      <c r="O173" s="2">
+      <c r="O173">
         <v>0</v>
       </c>
       <c r="P173" t="b">
@@ -8870,20 +8837,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P173"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8933,7 +8899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="C2">
         <v>0</v>
       </c>
@@ -8962,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4.7990000000000004</v>
+        <v>4.799</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -8971,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="C3">
         <v>0</v>
       </c>
@@ -8985,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.5089999999999999</v>
+        <v>2.509</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -9000,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.9539999999999997</v>
+        <v>4.954</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -9009,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="C4">
         <v>0</v>
       </c>
@@ -9023,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.5209999999999999</v>
+        <v>2.521</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -9038,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.7770000000000001</v>
+        <v>4.777</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -9047,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -9085,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="C6">
         <v>0</v>
       </c>
@@ -9099,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.7149999999999999</v>
+        <v>2.715</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -9123,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="C7">
         <v>0</v>
       </c>
@@ -9164,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="C8">
         <v>0</v>
       </c>
@@ -9181,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.7890000000000001</v>
+        <v>2.789</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -9196,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.6859999999999999</v>
+        <v>4.686</v>
       </c>
       <c r="O8" t="s">
         <v>17</v>
@@ -9205,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="C9">
         <v>0</v>
       </c>
@@ -9222,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.1259999999999999</v>
+        <v>3.126</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -9237,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.9379999999999997</v>
+        <v>4.938</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -9246,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="C10">
         <v>0</v>
       </c>
@@ -9260,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2.9529999999999998</v>
+        <v>2.953</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9275,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.0069999999999997</v>
+        <v>5.007</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
@@ -9284,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>147</v>
       </c>
@@ -9301,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.9740000000000002</v>
+        <v>2.974</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -9316,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.8860000000000001</v>
+        <v>4.886</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
@@ -9325,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>135</v>
       </c>
@@ -9360,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.9960000000000004</v>
+        <v>4.996</v>
       </c>
       <c r="O12" t="s">
         <v>17</v>
@@ -9369,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>143</v>
       </c>
@@ -9386,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3.0579999999999998</v>
+        <v>3.058</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -9410,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>144</v>
       </c>
@@ -9427,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.7519999999999998</v>
+        <v>2.752</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -9442,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.1029999999999998</v>
+        <v>5.103</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -9451,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>139</v>
       </c>
@@ -9471,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2.8029999999999999</v>
+        <v>2.803</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -9486,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.7590000000000003</v>
+        <v>4.759</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -9495,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>134</v>
       </c>
@@ -9527,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.6790000000000003</v>
+        <v>4.679</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
@@ -9536,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>152</v>
       </c>
@@ -9553,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.6869999999999998</v>
+        <v>2.687</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -9568,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.6230000000000002</v>
+        <v>4.623</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
@@ -9577,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>167</v>
       </c>
@@ -9594,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.7450000000000001</v>
+        <v>2.745</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -9609,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.7169999999999996</v>
+        <v>4.717</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
@@ -9618,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>159</v>
       </c>
@@ -9635,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.6960000000000002</v>
+        <v>2.696</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -9650,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.8780000000000001</v>
+        <v>4.878</v>
       </c>
       <c r="O19" t="s">
         <v>17</v>
@@ -9659,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>144</v>
       </c>
@@ -9691,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.6440000000000001</v>
+        <v>4.644</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
@@ -9700,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>134</v>
       </c>
@@ -9717,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.6560000000000001</v>
+        <v>2.656</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -9732,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.5970000000000004</v>
+        <v>4.597</v>
       </c>
       <c r="O21" t="s">
         <v>17</v>
@@ -9741,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>147</v>
       </c>
@@ -9758,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.7080000000000002</v>
+        <v>2.708</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -9773,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.6550000000000002</v>
+        <v>4.655</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
@@ -9782,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>143</v>
       </c>
@@ -9823,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>149</v>
       </c>
@@ -9843,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3.0409999999999999</v>
+        <v>3.041</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -9867,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>183</v>
       </c>
@@ -9908,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>180</v>
       </c>
@@ -9949,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>190</v>
       </c>
@@ -9990,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>167</v>
       </c>
@@ -10034,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>159</v>
       </c>
@@ -10078,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>222</v>
       </c>
@@ -10119,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>168</v>
       </c>
@@ -10163,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>297</v>
       </c>
@@ -10207,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>174</v>
       </c>
@@ -10251,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>272</v>
       </c>
@@ -10295,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>175</v>
       </c>
@@ -10315,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>9.0259999999999998</v>
+        <v>9.026</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -10339,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>248</v>
       </c>
@@ -10380,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>176</v>
       </c>
@@ -10424,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>149</v>
       </c>
@@ -10444,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4.0289999999999999</v>
+        <v>4.029</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -10468,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="B39">
         <v>147</v>
       </c>
@@ -10512,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40">
         <v>127</v>
       </c>
@@ -10523,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -10556,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41">
         <v>152</v>
       </c>
@@ -10576,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4.9109999999999996</v>
+        <v>4.911</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -10600,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42">
         <v>149</v>
       </c>
@@ -10620,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>4.8159999999999998</v>
+        <v>4.816</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -10644,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43">
         <v>167</v>
       </c>
@@ -10655,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -10664,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5.4829999999999997</v>
+        <v>5.483</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -10688,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44">
         <v>184</v>
       </c>
@@ -10699,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -10708,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>5.0289999999999999</v>
+        <v>5.029</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -10732,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45">
         <v>199</v>
       </c>
@@ -10743,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -10776,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46">
         <v>208</v>
       </c>
@@ -10787,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -10796,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>5.5359999999999996</v>
+        <v>5.536</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -10820,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47">
         <v>212</v>
       </c>
@@ -10831,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -10840,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5.0529999999999999</v>
+        <v>5.053</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -10849,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -10867,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48">
         <v>251</v>
       </c>
@@ -10887,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5.2519999999999998</v>
+        <v>5.252</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -10914,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>226</v>
       </c>
@@ -10925,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -10961,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>227</v>
       </c>
@@ -10972,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -10981,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4.9950000000000001</v>
+        <v>4.995</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -11008,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>219</v>
       </c>
@@ -11055,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52">
         <v>202</v>
       </c>
@@ -11075,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>7.5229999999999997</v>
+        <v>7.523</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -11102,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53">
         <v>206</v>
       </c>
@@ -11122,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5.6150000000000002</v>
+        <v>5.615</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -11149,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54">
         <v>177</v>
       </c>
@@ -11160,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -11169,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5.2279999999999998</v>
+        <v>5.228</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
@@ -11196,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55">
         <v>163</v>
       </c>
@@ -11216,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>4.9710000000000001</v>
+        <v>4.971</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -11243,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56">
         <v>182</v>
       </c>
@@ -11263,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4.3869999999999996</v>
+        <v>4.387</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -11272,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -11290,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16">
       <c r="B57">
         <v>205</v>
       </c>
@@ -11310,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3.6070000000000002</v>
+        <v>3.607</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -11337,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16">
       <c r="B58">
         <v>206</v>
       </c>
@@ -11357,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4.3760000000000003</v>
+        <v>4.376</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -11384,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16">
       <c r="B59">
         <v>209</v>
       </c>
@@ -11431,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16">
       <c r="B60">
         <v>190</v>
       </c>
@@ -11478,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="B61">
         <v>188</v>
       </c>
@@ -11498,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>4.1420000000000003</v>
+        <v>4.142</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -11525,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62">
         <v>257</v>
       </c>
@@ -11572,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16">
       <c r="B63">
         <v>180</v>
       </c>
@@ -11592,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>4.4539999999999997</v>
+        <v>4.454</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -11619,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16">
       <c r="B64">
         <v>179</v>
       </c>
@@ -11639,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>4.8019999999999996</v>
+        <v>4.802</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -11666,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16">
       <c r="B65">
         <v>171</v>
       </c>
@@ -11713,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16">
       <c r="B66">
         <v>174</v>
       </c>
@@ -11733,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>6.3220000000000001</v>
+        <v>6.322</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -11760,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16">
       <c r="B67">
         <v>168</v>
       </c>
@@ -11807,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16">
       <c r="B68">
         <v>201</v>
       </c>
@@ -11827,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>6.1539999999999999</v>
+        <v>6.154</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -11854,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16">
       <c r="B69">
         <v>167</v>
       </c>
@@ -11874,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6.1820000000000004</v>
+        <v>6.182</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -11901,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16">
       <c r="B70">
         <v>187</v>
       </c>
@@ -11948,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16">
       <c r="B71">
         <v>3.16</v>
       </c>
@@ -11986,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>5.9349999999999996</v>
+        <v>5.935</v>
       </c>
       <c r="O71" t="s">
         <v>17</v>
@@ -11995,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16">
       <c r="B72">
         <v>3.25</v>
       </c>
@@ -12015,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>6.3570000000000002</v>
+        <v>6.357</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -12033,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>5.5739999999999998</v>
+        <v>5.574</v>
       </c>
       <c r="O72" t="s">
         <v>17</v>
@@ -12042,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16">
       <c r="B73">
         <v>3.27</v>
       </c>
@@ -12062,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>5.9539999999999997</v>
+        <v>5.954</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -12089,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16">
       <c r="B74">
         <v>3.18</v>
       </c>
@@ -12109,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>5.7629999999999999</v>
+        <v>5.763</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -12136,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16">
       <c r="B75">
         <v>3.13</v>
       </c>
@@ -12156,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>6.0049999999999999</v>
+        <v>6.005</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -12174,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>5.6180000000000003</v>
+        <v>5.618</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -12183,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16">
       <c r="B76">
         <v>3.41</v>
       </c>
@@ -12221,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>5.4050000000000002</v>
+        <v>5.405</v>
       </c>
       <c r="O76" t="s">
         <v>17</v>
@@ -12230,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16">
       <c r="B77">
         <v>3.18</v>
       </c>
@@ -12250,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>4.1529999999999996</v>
+        <v>4.153</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -12259,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -12268,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>5.8940000000000001</v>
+        <v>5.894</v>
       </c>
       <c r="O77" t="s">
         <v>17</v>
@@ -12277,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16">
       <c r="B78">
         <v>3.41</v>
       </c>
@@ -12297,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4.8739999999999997</v>
+        <v>4.874</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -12315,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>5.3049999999999997</v>
+        <v>5.305</v>
       </c>
       <c r="O78" t="s">
         <v>17</v>
@@ -12324,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16">
       <c r="B79">
         <v>2.95</v>
       </c>
@@ -12344,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5.1719999999999997</v>
+        <v>5.172</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -12362,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>5.2380000000000004</v>
+        <v>5.238</v>
       </c>
       <c r="O79" t="s">
         <v>17</v>
@@ -12371,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16">
       <c r="B80">
         <v>2.84</v>
       </c>
@@ -12391,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5.6870000000000003</v>
+        <v>5.687</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -12409,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>6.3840000000000003</v>
+        <v>6.384</v>
       </c>
       <c r="O80" t="s">
         <v>17</v>
@@ -12418,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81">
         <v>3</v>
       </c>
@@ -12438,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>6.7789999999999999</v>
+        <v>6.779</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -12456,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>6.7039999999999997</v>
+        <v>6.704</v>
       </c>
       <c r="O81" t="s">
         <v>17</v>
@@ -12465,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82">
         <v>3.19</v>
       </c>
@@ -12485,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>6.9089999999999998</v>
+        <v>6.909</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -12494,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -12503,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>6.3150000000000004</v>
+        <v>6.315</v>
       </c>
       <c r="O82" t="s">
         <v>17</v>
@@ -12512,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16">
       <c r="B83">
         <v>3.34</v>
       </c>
@@ -12532,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>5.8230000000000004</v>
+        <v>5.823</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -12550,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>6.5590000000000002</v>
+        <v>6.559</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
@@ -12559,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84">
         <v>3.88</v>
       </c>
@@ -12579,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>17.219000000000001</v>
+        <v>17.219</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -12597,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>6.2489999999999997</v>
+        <v>6.249</v>
       </c>
       <c r="O84" t="s">
         <v>17</v>
@@ -12606,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85">
         <v>3.87</v>
       </c>
@@ -12626,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>5.2069999999999999</v>
+        <v>5.207</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -12644,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>6.9050000000000002</v>
+        <v>6.905</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
@@ -12653,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16">
       <c r="B86">
         <v>3.77</v>
       </c>
@@ -12673,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>6.0990000000000002</v>
+        <v>6.099</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -12691,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>6.5030000000000001</v>
+        <v>6.503</v>
       </c>
       <c r="O86" t="s">
         <v>17</v>
@@ -12700,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16">
       <c r="B87">
         <v>4.08</v>
       </c>
@@ -12720,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>5.8369999999999997</v>
+        <v>5.837</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -12729,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -12747,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16">
       <c r="B88">
         <v>3.57</v>
       </c>
@@ -12767,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>6.0339999999999998</v>
+        <v>6.034</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -12785,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>6.4329999999999998</v>
+        <v>6.433</v>
       </c>
       <c r="O88" t="s">
         <v>17</v>
@@ -12794,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16">
       <c r="B89">
         <v>3.93</v>
       </c>
@@ -12814,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>5.8719999999999999</v>
+        <v>5.872</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -12832,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>6.2720000000000002</v>
+        <v>6.272</v>
       </c>
       <c r="O89" t="s">
         <v>17</v>
@@ -12841,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16">
       <c r="B90">
         <v>3.6</v>
       </c>
@@ -12861,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>5.5789999999999997</v>
+        <v>5.579</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -12879,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>6.8529999999999998</v>
+        <v>6.853</v>
       </c>
       <c r="O90" t="s">
         <v>17</v>
@@ -12888,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16">
       <c r="B91">
         <v>3.54</v>
       </c>
@@ -12908,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>5.6449999999999996</v>
+        <v>5.645</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -12926,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>6.0209999999999999</v>
+        <v>6.021</v>
       </c>
       <c r="O91" t="s">
         <v>17</v>
@@ -12935,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16">
       <c r="B92">
         <v>3.65</v>
       </c>
@@ -12955,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>4.5629999999999997</v>
+        <v>4.563</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -12973,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>6.3860000000000001</v>
+        <v>6.386</v>
       </c>
       <c r="O92" t="s">
         <v>17</v>
@@ -12982,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16">
       <c r="B93">
         <v>3.85</v>
       </c>
@@ -13002,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>4.9020000000000001</v>
+        <v>4.902</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -13020,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>6.3369999999999997</v>
+        <v>6.337</v>
       </c>
       <c r="O93" t="s">
         <v>17</v>
@@ -13029,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16">
       <c r="B94">
         <v>3.63</v>
       </c>
@@ -13049,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5.6829999999999998</v>
+        <v>5.683</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -13067,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>5.6079999999999997</v>
+        <v>5.608</v>
       </c>
       <c r="O94" t="s">
         <v>17</v>
@@ -13076,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16">
       <c r="B95">
         <v>4.04</v>
       </c>
@@ -13096,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>5.6050000000000004</v>
+        <v>5.605</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -13114,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>6.1379999999999999</v>
+        <v>6.138</v>
       </c>
       <c r="O95" t="s">
         <v>17</v>
@@ -13123,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16">
       <c r="B96">
         <v>4.03</v>
       </c>
@@ -13161,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>5.9320000000000004</v>
+        <v>5.932</v>
       </c>
       <c r="O96" t="s">
         <v>17</v>
@@ -13170,9 +13136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16">
       <c r="B97">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -13208,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>6.0350000000000001</v>
+        <v>6.035</v>
       </c>
       <c r="O97" t="s">
         <v>17</v>
@@ -13217,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16">
       <c r="B98">
         <v>3.34</v>
       </c>
@@ -13237,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>8.0570000000000004</v>
+        <v>8.057</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -13264,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16">
       <c r="B99">
         <v>3.42</v>
       </c>
@@ -13284,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>6.0410000000000004</v>
+        <v>6.041</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -13302,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>5.6689999999999996</v>
+        <v>5.669</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
@@ -13311,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16">
       <c r="B100">
         <v>3.49</v>
       </c>
@@ -13349,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>6.3470000000000004</v>
+        <v>6.347</v>
       </c>
       <c r="O100" t="s">
         <v>17</v>
@@ -13358,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16">
       <c r="B101">
         <v>3.58</v>
       </c>
@@ -13378,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>6.5570000000000004</v>
+        <v>6.557</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -13396,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>6.3070000000000004</v>
+        <v>6.307</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
@@ -13405,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16">
       <c r="B102">
         <v>3.72</v>
       </c>
@@ -13425,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>6.7350000000000003</v>
+        <v>6.735</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -13443,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>5.2990000000000004</v>
+        <v>5.299</v>
       </c>
       <c r="O102" t="s">
         <v>17</v>
@@ -13452,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16">
       <c r="B103">
         <v>3.68</v>
       </c>
@@ -13472,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6.2690000000000001</v>
+        <v>6.269</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -13490,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>6.0090000000000003</v>
+        <v>6.009</v>
       </c>
       <c r="O103" t="s">
         <v>17</v>
@@ -13499,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16">
       <c r="B104">
         <v>3.52</v>
       </c>
@@ -13519,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>6.2809999999999997</v>
+        <v>6.281</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -13537,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>6.0359999999999996</v>
+        <v>6.036</v>
       </c>
       <c r="O104" t="s">
         <v>17</v>
@@ -13546,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16">
       <c r="B105">
         <v>3.41</v>
       </c>
@@ -13566,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>6.1280000000000001</v>
+        <v>6.128</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -13593,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16">
       <c r="B106">
         <v>3.33</v>
       </c>
@@ -13613,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>7.0190000000000001</v>
+        <v>7.019</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -13631,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>7.6959999999999997</v>
+        <v>7.696</v>
       </c>
       <c r="O106" t="s">
         <v>17</v>
@@ -13640,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16">
       <c r="B107">
         <v>3.7</v>
       </c>
@@ -13660,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6.2560000000000002</v>
+        <v>6.256</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -13678,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>6.8040000000000003</v>
+        <v>6.804</v>
       </c>
       <c r="O107" t="s">
         <v>17</v>
@@ -13687,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16">
       <c r="B108">
         <v>3.76</v>
       </c>
@@ -13725,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>6.1749999999999998</v>
+        <v>6.175</v>
       </c>
       <c r="O108" t="s">
         <v>17</v>
@@ -13734,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16">
       <c r="B109">
         <v>3.61</v>
       </c>
@@ -13754,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>6.1319999999999997</v>
+        <v>6.132</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -13763,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -13772,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>6.0540000000000003</v>
+        <v>6.054</v>
       </c>
       <c r="O109" t="s">
         <v>17</v>
@@ -13781,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16">
       <c r="B110">
         <v>3.22</v>
       </c>
@@ -13801,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6.2329999999999997</v>
+        <v>6.233</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -13819,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>5.5350000000000001</v>
+        <v>5.535</v>
       </c>
       <c r="O110" t="s">
         <v>17</v>
@@ -13828,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16">
       <c r="B111">
         <v>3.23</v>
       </c>
@@ -13848,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>7.0209999999999999</v>
+        <v>7.021</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -13866,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>5.9349999999999996</v>
+        <v>5.935</v>
       </c>
       <c r="O111" t="s">
         <v>17</v>
@@ -13875,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16">
       <c r="B112">
         <v>3.13</v>
       </c>
@@ -13895,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>6.6539999999999999</v>
+        <v>6.654</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -13913,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>6.1349999999999998</v>
+        <v>6.135</v>
       </c>
       <c r="O112" t="s">
         <v>17</v>
@@ -13922,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16">
       <c r="B113">
         <v>3.39</v>
       </c>
@@ -13942,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>6.2910000000000004</v>
+        <v>6.291</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -13960,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>5.9290000000000003</v>
+        <v>5.929</v>
       </c>
       <c r="O113" t="s">
         <v>17</v>
@@ -13969,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16">
       <c r="B114">
         <v>3.47</v>
       </c>
@@ -13989,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>5.7949999999999999</v>
+        <v>5.795</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -14016,9 +13982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16">
       <c r="B115">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -14036,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>6.2720000000000002</v>
+        <v>6.272</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -14054,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>5.7309999999999999</v>
+        <v>5.731</v>
       </c>
       <c r="O115" t="s">
         <v>17</v>
@@ -14063,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16">
       <c r="B116">
         <v>3.68</v>
       </c>
@@ -14083,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>6.0410000000000004</v>
+        <v>6.041</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -14110,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16">
       <c r="B117">
         <v>3.85</v>
       </c>
@@ -14130,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>5.1639999999999997</v>
+        <v>5.164</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -14148,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>6.7119999999999997</v>
+        <v>6.712</v>
       </c>
       <c r="O117" t="s">
         <v>17</v>
@@ -14157,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16">
       <c r="B118">
         <v>3.67</v>
       </c>
@@ -14204,9 +14170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16">
       <c r="B119">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -14251,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16">
       <c r="B120">
         <v>4.24</v>
       </c>
@@ -14271,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6.2240000000000002</v>
+        <v>6.224</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -14289,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>5.8479999999999999</v>
+        <v>5.848</v>
       </c>
       <c r="O120" t="s">
         <v>17</v>
@@ -14298,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16">
       <c r="B121">
         <v>3.77</v>
       </c>
@@ -14318,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>6.1109999999999998</v>
+        <v>6.111</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -14336,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>5.7839999999999998</v>
+        <v>5.784</v>
       </c>
       <c r="O121" t="s">
         <v>17</v>
@@ -14345,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16">
       <c r="B122">
         <v>3.33</v>
       </c>
@@ -14365,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>5.2939999999999996</v>
+        <v>5.294</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -14383,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>6.1840000000000002</v>
+        <v>6.184</v>
       </c>
       <c r="O122" t="s">
         <v>17</v>
@@ -14392,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16">
       <c r="B123">
         <v>3.45</v>
       </c>
@@ -14412,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>5.1630000000000003</v>
+        <v>5.163</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -14430,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>5.7919999999999998</v>
+        <v>5.792</v>
       </c>
       <c r="O123" t="s">
         <v>17</v>
@@ -14439,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16">
       <c r="B124">
         <v>3.46</v>
       </c>
@@ -14459,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>5.0209999999999999</v>
+        <v>5.021</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -14477,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>6.5119999999999996</v>
+        <v>6.512</v>
       </c>
       <c r="O124" t="s">
         <v>17</v>
@@ -14486,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16">
       <c r="B125">
         <v>3.51</v>
       </c>
@@ -14506,7 +14472,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5.0030000000000001</v>
+        <v>5.003</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -14524,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>5.9790000000000001</v>
+        <v>5.979</v>
       </c>
       <c r="O125" t="s">
         <v>17</v>
@@ -14533,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16">
       <c r="B126">
         <v>3.58</v>
       </c>
@@ -14553,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>4.9240000000000004</v>
+        <v>4.924</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -14571,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>5.9790000000000001</v>
+        <v>5.979</v>
       </c>
       <c r="O126" t="s">
         <v>17</v>
@@ -14580,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16">
       <c r="B127">
         <v>3.32</v>
       </c>
@@ -14600,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>4.8470000000000004</v>
+        <v>4.847</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -14618,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>5.9359999999999999</v>
+        <v>5.936</v>
       </c>
       <c r="O127" t="s">
         <v>17</v>
@@ -14627,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16">
       <c r="B128">
         <v>3.64</v>
       </c>
@@ -14647,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>4.4009999999999998</v>
+        <v>4.401</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -14665,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>6.2530000000000001</v>
+        <v>6.253</v>
       </c>
       <c r="O128" t="s">
         <v>17</v>
@@ -14674,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16">
       <c r="B129">
         <v>3.58</v>
       </c>
@@ -14694,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>4.5449999999999999</v>
+        <v>4.545</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -14703,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -14712,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>5.7830000000000004</v>
+        <v>5.783</v>
       </c>
       <c r="O129" t="s">
         <v>17</v>
@@ -14721,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16">
       <c r="B130">
         <v>3.59</v>
       </c>
@@ -14768,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16">
       <c r="B131">
         <v>3.62</v>
       </c>
@@ -14788,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>4.3310000000000004</v>
+        <v>4.331</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -14815,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16">
       <c r="B132">
         <v>3.71</v>
       </c>
@@ -14853,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>5.4210000000000003</v>
+        <v>5.421</v>
       </c>
       <c r="O132" t="s">
         <v>17</v>
@@ -14862,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16">
       <c r="B133">
         <v>3.45</v>
       </c>
@@ -14900,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>5.3209999999999997</v>
+        <v>5.321</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -14909,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16">
       <c r="B134">
         <v>3.51</v>
       </c>
@@ -14929,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>4.3550000000000004</v>
+        <v>4.355</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -14947,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>4.7270000000000003</v>
+        <v>4.727</v>
       </c>
       <c r="O134" t="s">
         <v>17</v>
@@ -14956,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16">
       <c r="B135">
         <v>3.51</v>
       </c>
@@ -14976,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>4.3609999999999998</v>
+        <v>4.361</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -14994,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>4.6539999999999999</v>
+        <v>4.654</v>
       </c>
       <c r="O135" t="s">
         <v>17</v>
@@ -15003,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16">
       <c r="B136">
         <v>3.37</v>
       </c>
@@ -15023,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>4.0789999999999997</v>
+        <v>4.079</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -15041,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>4.8209999999999997</v>
+        <v>4.821</v>
       </c>
       <c r="O136" t="s">
         <v>17</v>
@@ -15050,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16">
       <c r="B137">
         <v>3.35</v>
       </c>
@@ -15070,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>3.9670000000000001</v>
+        <v>3.967</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -15088,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <v>4.8280000000000003</v>
+        <v>4.828</v>
       </c>
       <c r="O137" t="s">
         <v>17</v>
@@ -15097,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16">
       <c r="B138">
         <v>3.29</v>
       </c>
@@ -15117,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>4.1820000000000004</v>
+        <v>4.182</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
@@ -15135,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <v>4.5419999999999998</v>
+        <v>4.542</v>
       </c>
       <c r="O138" t="s">
         <v>17</v>
@@ -15144,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16">
       <c r="B139">
         <v>3.26</v>
       </c>
@@ -15164,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>4.0529999999999999</v>
+        <v>4.053</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -15182,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>4.7489999999999997</v>
+        <v>4.749</v>
       </c>
       <c r="O139" t="s">
         <v>17</v>
@@ -15191,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16">
       <c r="B140">
         <v>3.28</v>
       </c>
@@ -15211,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>4.1580000000000004</v>
+        <v>4.158</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -15229,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <v>5.0129999999999999</v>
+        <v>5.013</v>
       </c>
       <c r="O140" t="s">
         <v>17</v>
@@ -15238,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16">
       <c r="B141">
         <v>3.23</v>
       </c>
@@ -15258,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>3.1179999999999999</v>
+        <v>3.118</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -15267,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -15285,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16">
       <c r="B142">
         <v>3.13</v>
       </c>
@@ -15305,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>3.7269999999999999</v>
+        <v>3.727</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -15323,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>5.1779999999999999</v>
+        <v>5.178</v>
       </c>
       <c r="O142" t="s">
         <v>17</v>
@@ -15332,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16">
       <c r="B143">
         <v>3.2</v>
       </c>
@@ -15352,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>3.9510000000000001</v>
+        <v>3.951</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -15370,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>4.9320000000000004</v>
+        <v>4.932</v>
       </c>
       <c r="O143" t="s">
         <v>17</v>
@@ -15379,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16">
       <c r="B144">
         <v>3.07</v>
       </c>
@@ -15417,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>5.3949999999999996</v>
+        <v>5.395</v>
       </c>
       <c r="O144" t="s">
         <v>17</v>
@@ -15426,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16">
       <c r="B145">
         <v>3.03</v>
       </c>
@@ -15446,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>3.8959999999999999</v>
+        <v>3.896</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -15455,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -15464,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>4.8250000000000002</v>
+        <v>4.825</v>
       </c>
       <c r="O145" t="s">
         <v>17</v>
@@ -15473,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16">
       <c r="B146">
         <v>2.9</v>
       </c>
@@ -15493,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>4.1349999999999998</v>
+        <v>4.135</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -15520,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16">
       <c r="B147">
         <v>2.87</v>
       </c>
@@ -15540,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -15549,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -15558,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>4.6719999999999997</v>
+        <v>4.672</v>
       </c>
       <c r="O147" t="s">
         <v>17</v>
@@ -15567,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16">
       <c r="B148">
         <v>2.86</v>
       </c>
@@ -15596,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -15605,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>4.4459999999999997</v>
+        <v>4.446</v>
       </c>
       <c r="O148" t="s">
         <v>17</v>
@@ -15614,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16">
       <c r="B149">
         <v>2.83</v>
       </c>
@@ -15634,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>3.8980000000000001</v>
+        <v>3.898</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -15652,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="O149" t="s">
         <v>17</v>
@@ -15661,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16">
       <c r="B150">
         <v>2.73</v>
       </c>
@@ -15681,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>3.8340000000000001</v>
+        <v>3.834</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -15699,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>4.4649999999999999</v>
+        <v>4.465</v>
       </c>
       <c r="O150" t="s">
         <v>17</v>
@@ -15708,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16">
       <c r="B151">
         <v>2.8</v>
       </c>
@@ -15737,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -15746,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>4.6669999999999998</v>
+        <v>4.667</v>
       </c>
       <c r="O151" t="s">
         <v>17</v>
@@ -15755,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16">
       <c r="B152">
         <v>2.74</v>
       </c>
@@ -15775,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>3.9359999999999999</v>
+        <v>3.936</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -15784,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -15793,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>4.4409999999999998</v>
+        <v>4.441</v>
       </c>
       <c r="O152" t="s">
         <v>17</v>
@@ -15802,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16">
       <c r="B153">
         <v>2.71</v>
       </c>
@@ -15822,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>3.8260000000000001</v>
+        <v>3.826</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -15840,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>4.4859999999999998</v>
+        <v>4.486</v>
       </c>
       <c r="O153" t="s">
         <v>17</v>
@@ -15849,7 +15815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16">
       <c r="B154">
         <v>2.76</v>
       </c>
@@ -15869,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>3.7160000000000002</v>
+        <v>3.716</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -15878,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -15896,9 +15862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16">
       <c r="B155">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -15925,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -15934,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="O155" t="s">
         <v>17</v>
@@ -15943,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16">
       <c r="B156">
         <v>2.66</v>
       </c>
@@ -15963,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>3.8570000000000002</v>
+        <v>3.857</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -15990,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16">
       <c r="B157">
         <v>2.85</v>
       </c>
@@ -16010,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>3.9119999999999999</v>
+        <v>3.912</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -16019,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -16028,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>4.4560000000000004</v>
+        <v>4.456</v>
       </c>
       <c r="O157" t="s">
         <v>17</v>
@@ -16037,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16">
       <c r="B158">
         <v>2.79</v>
       </c>
@@ -16057,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>3.9689999999999999</v>
+        <v>3.969</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -16075,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>4.6550000000000002</v>
+        <v>4.655</v>
       </c>
       <c r="O158" t="s">
         <v>17</v>
@@ -16084,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16">
       <c r="B159">
         <v>2.91</v>
       </c>
@@ -16104,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>4.3220000000000001</v>
+        <v>4.322</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -16113,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -16122,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>4.5970000000000004</v>
+        <v>4.597</v>
       </c>
       <c r="O159" t="s">
         <v>17</v>
@@ -16131,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16">
       <c r="B160">
         <v>2.87</v>
       </c>
@@ -16151,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>4.3390000000000004</v>
+        <v>4.339</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -16169,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <v>4.6269999999999998</v>
+        <v>4.627</v>
       </c>
       <c r="O160" t="s">
         <v>17</v>
@@ -16178,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16">
       <c r="B161">
         <v>2.98</v>
       </c>
@@ -16198,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>4.6379999999999999</v>
+        <v>4.638</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -16216,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <v>4.6710000000000003</v>
+        <v>4.671</v>
       </c>
       <c r="O161" t="s">
         <v>17</v>
@@ -16225,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16">
       <c r="B162">
         <v>2.94</v>
       </c>
@@ -16245,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -16263,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>4.5819999999999999</v>
+        <v>4.582</v>
       </c>
       <c r="O162" t="s">
         <v>17</v>
@@ -16272,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16">
       <c r="B163">
         <v>2.8</v>
       </c>
@@ -16310,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>4.8869999999999996</v>
+        <v>4.887</v>
       </c>
       <c r="O163" t="s">
         <v>17</v>
@@ -16319,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16">
       <c r="B164">
         <v>2.71</v>
       </c>
@@ -16357,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <v>4.2370000000000001</v>
+        <v>4.237</v>
       </c>
       <c r="O164" t="s">
         <v>17</v>
@@ -16366,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16">
       <c r="B165">
         <v>2.59</v>
       </c>
@@ -16386,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>4.7629999999999999</v>
+        <v>4.763</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -16404,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>4.7679999999999998</v>
+        <v>4.768</v>
       </c>
       <c r="O165" t="s">
         <v>17</v>
@@ -16413,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16">
       <c r="B166">
         <v>3</v>
       </c>
@@ -16460,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16">
       <c r="B167">
         <v>3.06</v>
       </c>
@@ -16480,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -16507,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16">
       <c r="B168">
         <v>3.17</v>
       </c>
@@ -16554,7 +16520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16">
       <c r="B169">
         <v>3.5</v>
       </c>
@@ -16592,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="O169" t="s">
         <v>17</v>
@@ -16601,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16">
       <c r="C170">
         <v>0</v>
       </c>
@@ -16645,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16">
       <c r="C171">
         <v>0</v>
       </c>
@@ -16662,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -16689,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16">
       <c r="C172">
         <v>0</v>
       </c>
@@ -16727,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16">
       <c r="C173">
         <v>0</v>
       </c>
